--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value455.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value455.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.342325485467087</v>
+        <v>0.8480732440948486</v>
       </c>
       <c r="B1">
-        <v>1.891673809911091</v>
+        <v>1.265842795372009</v>
       </c>
       <c r="C1">
-        <v>3.439849993400913</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.502823281759669</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.3593510191725688</v>
+        <v>1.670571446418762</v>
       </c>
     </row>
   </sheetData>
